--- a/AP150_TestData_ManageDistributionSets_21C.xlsx
+++ b/AP150_TestData_ManageDistributionSets_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B410551-01F0-46E6-BEA0-786D74820606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE81597-7527-422D-A147-FE2F552E5FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>UserName</t>
   </si>
@@ -306,15 +306,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>Watson Enterprises United States</t>
@@ -820,106 +811,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BJ2" sqref="BJ2"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BT2" sqref="BR2:BT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.54296875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.77734375" style="3" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" style="3"/>
+    <col min="8" max="8" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="20" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="22" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="22" style="3" customWidth="1"/>
     <col min="15" max="15" width="23" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.54296875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7265625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="6.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.77734375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="6.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="48.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="48.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="48.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="15.54296875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="18.1796875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="15.81640625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="8.1796875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="19.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="12.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="48.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15.5546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="18.21875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="15.77734375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="8.21875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="19.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="12.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="41" max="41" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="48.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.54296875" style="3" customWidth="1"/>
-    <col min="45" max="45" width="18.1796875" style="3" customWidth="1"/>
-    <col min="46" max="46" width="15.81640625" style="3" customWidth="1"/>
-    <col min="47" max="47" width="8.1796875" style="3" customWidth="1"/>
+    <col min="42" max="42" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="48.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5546875" style="3" customWidth="1"/>
+    <col min="45" max="45" width="18.21875" style="3" customWidth="1"/>
+    <col min="46" max="46" width="15.77734375" style="3" customWidth="1"/>
+    <col min="47" max="47" width="8.21875" style="3" customWidth="1"/>
     <col min="48" max="48" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="48.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.54296875" style="3" customWidth="1"/>
-    <col min="52" max="52" width="18.1796875" style="3" customWidth="1"/>
-    <col min="53" max="53" width="15.81640625" style="3" customWidth="1"/>
-    <col min="54" max="54" width="8.1796875" style="3" customWidth="1"/>
+    <col min="49" max="49" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="48.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5546875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="18.21875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="15.77734375" style="3" customWidth="1"/>
+    <col min="54" max="54" width="8.21875" style="3" customWidth="1"/>
     <col min="55" max="55" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="48.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.54296875" style="3" customWidth="1"/>
-    <col min="59" max="59" width="18.1796875" style="3" customWidth="1"/>
-    <col min="60" max="60" width="15.81640625" style="3" customWidth="1"/>
-    <col min="61" max="61" width="8.1796875" style="3" customWidth="1"/>
+    <col min="56" max="56" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="48.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.5546875" style="3" customWidth="1"/>
+    <col min="59" max="59" width="18.21875" style="3" customWidth="1"/>
+    <col min="60" max="60" width="15.77734375" style="3" customWidth="1"/>
+    <col min="61" max="61" width="8.21875" style="3" customWidth="1"/>
     <col min="62" max="62" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="48.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.54296875" style="3" customWidth="1"/>
-    <col min="66" max="66" width="18.1796875" style="3" customWidth="1"/>
-    <col min="67" max="67" width="15.81640625" style="3" customWidth="1"/>
-    <col min="68" max="68" width="8.1796875" style="3" customWidth="1"/>
-    <col min="69" max="69" width="8.7265625" style="3"/>
-    <col min="70" max="70" width="44.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="26.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="16.54296875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="16384" width="8.7265625" style="3"/>
+    <col min="63" max="63" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="48.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5546875" style="3" customWidth="1"/>
+    <col min="66" max="66" width="18.21875" style="3" customWidth="1"/>
+    <col min="67" max="67" width="15.77734375" style="3" customWidth="1"/>
+    <col min="68" max="68" width="8.21875" style="3" customWidth="1"/>
+    <col min="69" max="69" width="8.77734375" style="3"/>
+    <col min="70" max="70" width="44.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="26.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="16.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -937,7 +928,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
@@ -1140,19 +1131,19 @@
         <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M2" s="4">
         <v>100</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O2" s="4">
         <v>50</v>
@@ -1161,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>43</v>
@@ -1191,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="5" t="s">
         <v>43</v>
@@ -1316,15 +1307,9 @@
       <c r="BP2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="BR2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1342,9 +1327,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
